--- a/public/UploadSht/sht.xlsx
+++ b/public/UploadSht/sht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PTPN 1 REG 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D1BBD4-99FD-4A18-BDB5-9FE6A0FDF4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D202D84-33EE-4C55-8FB3-F3C941FDBB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{94A0EECA-B67D-48A1-BFC2-FF1EB05B0FF1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Aldiansyah Alayyubi</t>
   </si>
@@ -59,44 +59,46 @@
     <t>Proses Rekon</t>
   </si>
   <si>
-    <t>IC/01</t>
-  </si>
-  <si>
-    <t>IC/02</t>
-  </si>
-  <si>
-    <t>IC/03</t>
-  </si>
-  <si>
-    <t>IC/04</t>
-  </si>
-  <si>
-    <t>IC/05</t>
-  </si>
-  <si>
-    <t>10111003498121</t>
-  </si>
-  <si>
-    <t>10111003498131</t>
-  </si>
-  <si>
-    <t>10111003498141</t>
-  </si>
-  <si>
-    <t>10111003498151</t>
-  </si>
-  <si>
-    <t>10111003498161</t>
-  </si>
-  <si>
-    <t>10111003498171</t>
+    <t>101110034981200000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +112,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,12 +133,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,18 +173,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B086A3C3-C115-4930-A25B-A10D3EE9E731}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{E8BEBF39-08BF-44A5-BE9E-40EFAF8FD1B1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -491,456 +545,884 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11B927C-A29A-43F0-A736-753C3815AD33}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection sqref="A1:M6"/>
+      <selection activeCell="B1" sqref="B1:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.21875" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="102" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="D3" s="11">
         <v>26100</v>
       </c>
-      <c r="D1" s="3">
-        <v>36536</v>
+      <c r="E3" s="11">
+        <v>1971</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I3" s="6">
         <v>100000000</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3">
-        <v>45628</v>
+      <c r="L3" s="11">
+        <v>1971</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M3" s="6">
         <v>2024</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>26100</v>
-      </c>
-      <c r="D2" s="3">
-        <v>36536</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2">
-        <v>100000001</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L2" s="2">
-        <v>2025</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>26100</v>
-      </c>
-      <c r="D3" s="3">
-        <v>36536</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>100000002</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="3">
-        <v>46360</v>
-      </c>
-      <c r="L3" s="2">
-        <v>2026</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>26100</v>
-      </c>
-      <c r="D4" s="3">
-        <v>36536</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>100000003</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="3">
-        <v>46726</v>
-      </c>
-      <c r="L4" s="2">
-        <v>2027</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>26100</v>
-      </c>
-      <c r="D5" s="3">
-        <v>36536</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>100000004</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="3">
-        <v>47093</v>
-      </c>
-      <c r="L5" s="2">
-        <v>2028</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>26100</v>
-      </c>
-      <c r="D6" s="3">
-        <v>36536</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>100000005</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="3">
-        <v>47459</v>
-      </c>
-      <c r="L6" s="2">
-        <v>2029</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O3" s="6"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="7"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="7"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="7"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="7"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="7"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="7"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="7"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="7"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="7"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="7"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="7"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="7"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="7"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="7"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="7"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="7"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="7"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="7"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="7"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="7"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="7"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="7"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="7"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="7"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="7"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="7"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="7"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="7"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="7"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="7"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="7"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="7"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="7"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="7"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="7"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="7"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="7"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="7"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="7"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="7"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="7"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="7"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="7"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="7"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="7"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
